--- a/statistiche/RandomForestCounterfactuals/JK.xlsx
+++ b/statistiche/RandomForestCounterfactuals/JK.xlsx
@@ -38,12 +38,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FAF5E9"/>
+        <fgColor rgb="00E9ECEF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCB"/>
+        <fgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -458,77 +458,77 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Admission IC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Release B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Release D</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>ER Triage</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Admission IC</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Leucocytes</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ER Sepsis Triage</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>IV Antibiotics</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>IV Liquid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Release A</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>IV Antibiotics</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Leucocytes</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Release B</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>LacticAcid</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>CRP</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Release C</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Admission NC</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>ER Registration</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>IV Liquid</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Release C</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>CRP</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>LacticAcid</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ER Sepsis Triage</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Admission NC</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Release D</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -624,10 +624,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
@@ -755,38 +755,38 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>2</v>
       </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
@@ -889,28 +889,28 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -925,13 +925,13 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
         <v>0</v>
@@ -995,13 +995,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
@@ -1038,16 +1038,16 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2" t="n">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>0</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1190,22 +1190,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>1</v>
@@ -1260,22 +1260,22 @@
         <v>0</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
@@ -1297,13 +1297,13 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1321,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
@@ -1333,13 +1333,13 @@
         <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>1</v>
@@ -1394,22 +1394,22 @@
         <v>0</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
@@ -1431,22 +1431,22 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
@@ -1467,13 +1467,13 @@
         <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>1</v>
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
@@ -1577,10 +1577,10 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1595,19 +1595,19 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>1</v>
@@ -1662,22 +1662,22 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
@@ -1714,13 +1714,13 @@
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1732,16 +1732,16 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>1</v>
@@ -1796,22 +1796,22 @@
         <v>0</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
@@ -1836,10 +1836,10 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -1848,34 +1848,34 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>1</v>
@@ -1930,22 +1930,22 @@
         <v>0</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M22" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
@@ -1967,10 +1967,10 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1982,34 +1982,34 @@
         <v>2</v>
       </c>
       <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>2</v>
       </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>1</v>
@@ -2064,22 +2064,22 @@
         <v>0</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M24" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>0</v>
@@ -2122,7 +2122,7 @@
         <v>2</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>1</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M25" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>0</v>
@@ -2192,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>1</v>
@@ -2204,22 +2204,22 @@
         <v>0</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M26" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>1</v>
@@ -2274,22 +2274,22 @@
         <v>0</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M27" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>1</v>
@@ -2344,22 +2344,22 @@
         <v>0</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M28" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>3</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>1</v>
@@ -2414,22 +2414,22 @@
         <v>0</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M29" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>3</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>1</v>
@@ -2484,22 +2484,22 @@
         <v>0</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M30" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>3</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>1</v>
@@ -2554,22 +2554,22 @@
         <v>0</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M31" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>1</v>
@@ -2624,22 +2624,22 @@
         <v>0</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M32" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
@@ -2670,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="2" t="n">
         <v>1</v>
@@ -2694,22 +2694,22 @@
         <v>0</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M33" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>0</v>
@@ -2752,7 +2752,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="2" t="n">
         <v>1</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M34" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>0</v>
@@ -2822,7 +2822,7 @@
         <v>4</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="2" t="n">
         <v>1</v>
@@ -2834,22 +2834,22 @@
         <v>0</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M35" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>4</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="2" t="n">
         <v>1</v>
@@ -2904,22 +2904,22 @@
         <v>0</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M36" s="2" t="n">
         <v>4</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
@@ -2950,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>4</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="2" t="n">
         <v>1</v>
@@ -2974,22 +2974,22 @@
         <v>0</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M37" s="2" t="n">
         <v>4</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>0</v>
@@ -3032,7 +3032,7 @@
         <v>4</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="2" t="n">
         <v>1</v>
@@ -3044,22 +3044,22 @@
         <v>0</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M38" s="2" t="n">
         <v>5</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>5</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="2" t="n">
         <v>1</v>
@@ -3114,22 +3114,22 @@
         <v>0</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M39" s="2" t="n">
         <v>5</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>0</v>
@@ -3172,7 +3172,7 @@
         <v>6</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="2" t="n">
         <v>1</v>
@@ -3184,22 +3184,22 @@
         <v>0</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M40" s="2" t="n">
         <v>5</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>0</v>
@@ -3242,7 +3242,7 @@
         <v>6</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="2" t="n">
         <v>1</v>
@@ -3254,22 +3254,22 @@
         <v>0</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M41" s="2" t="n">
         <v>6</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
@@ -3300,10 +3300,10 @@
         <v>1</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="2" t="n">
         <v>1</v>
@@ -3312,7 +3312,7 @@
         <v>6</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="2" t="n">
         <v>1</v>
@@ -3321,25 +3321,25 @@
         <v>1</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M42" s="2" t="n">
         <v>6</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
